--- a/data/trans_camb/P23_10_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_10_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>-8,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-4,89</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-7,45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-6,5</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 4,07</t>
+          <t>-18,57; 9,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 5,67</t>
+          <t>-21,15; 6,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 9,42</t>
+          <t>-22,7; 1,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 3,23</t>
+          <t>-16,99; 13,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 3,95</t>
+          <t>-24,87; 0,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 1,75</t>
+          <t>-21,44; 8,14</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,96; 9,1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-18,33; -0,12</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-17,09; 2,63</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-52,26%</t>
+          <t>-28,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-44,61%</t>
+          <t>-50,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>-73,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-40,34%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-25,16%</t>
+          <t>-65,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-43,85%</t>
+          <t>-35,57%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-10,35%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-59,49%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-51,87%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-95,22; 99,73</t>
+          <t>-88,0; 294,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-90,29; 133,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 258,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-86,31; 91,36</t>
+          <t>-77,25; 231,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,77; 71,01</t>
+          <t>-100,0; 36,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-85,17; 32,29</t>
+          <t>-91,01; 152,3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-64,14; 134,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-87,43; 12,44</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-88,93; 44,44</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 6,75</t>
+          <t>-5,48; 14,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 1,38</t>
+          <t>-6,12; 6,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -1,11</t>
+          <t>-9,99; 0,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -1,05</t>
+          <t>-7,76; 1,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 1,59</t>
+          <t>-7,26; 3,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -0,97</t>
+          <t>-6,01; 5,72</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 6,82</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,13; 2,7</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 1,72</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-37,14%</t>
+          <t>-5,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-54,86%</t>
+          <t>-51,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-57,23%</t>
+          <t>-39,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,67%</t>
+          <t>-32,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,65%</t>
+          <t>-7,19%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-7,32%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-17,46%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-30,16%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,52; 128,37</t>
+          <t>-60,06; 271,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,41; 27,8</t>
+          <t>-61,91; 141,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,44; -14,93</t>
+          <t>-85,49; 21,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,18; -5,43</t>
+          <t>-77,7; 52,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,72; 29,85</t>
+          <t>-72,89; 85,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,93; -12,74</t>
+          <t>-64,58; 135,96</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-52,56; 149,27</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-57,14; 52,22</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-64,67; 37,55</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-2,49</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,15</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,13</t>
+          <t>-5,29; 7,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 5,16</t>
+          <t>-5,59; 6,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -1,21</t>
+          <t>-7,51; 4,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 3,92</t>
+          <t>-9,56; -1,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 0,2</t>
+          <t>-6,09; 3,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 3,21</t>
+          <t>-7,05; 2,03</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 1,31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 3,08</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 1,66</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,16%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-70,51%</t>
+          <t>-27,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,35%</t>
+          <t>-74,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-43,61%</t>
+          <t>-20,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>-39,9%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-34,42%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-9,56%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-33,84%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-63,59; 135,25</t>
+          <t>-59,22; 208,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 160,77</t>
+          <t>-63,5; 194,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,41; -21,54</t>
+          <t>-80,0; 144,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 100,97</t>
+          <t>-100,0; -7,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,88; 9,89</t>
+          <t>-69,28; 101,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 72,89</t>
+          <t>-79,19; 72,94</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-68,89; 35,84</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-53,28; 72,99</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-66,02; 41,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 2,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; -1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -0,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; -0,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-20,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-29,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-47,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-41,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-33,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-35,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 43,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,85; 21,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,28; -15,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,99; -8,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,95; 2,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,87; -5,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,79</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-3,14</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 8,32</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 3,69</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; -0,11</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 0,54</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 0,46</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 2,41</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 2,69</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 0,94</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 0,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-11,4%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-48,94%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-41,25%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-36,52%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-21,99%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-16,79%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-24,12%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-35,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-42,25; 140,0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-51,1; 63,62</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-74,69; -1,12</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-67,54; 10,06</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-64,74; 11,53</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-58,2; 45,79</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-45,17; 48,3</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-50,0; 15,31</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-59,08; 3,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
